--- a/config_Release/xiaoxiaole_shuihu_power_cfg.xlsx
+++ b/config_Release/xiaoxiaole_shuihu_power_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2217,7 +2217,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2268,7 +2268,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.56830000000000003</v>
+        <v>0.57230000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2279,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.10199999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2290,7 +2290,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>0.10299999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
